--- a/scripts/ugm/data/utokyo/list_utokyo.xlsx
+++ b/scripts/ugm/data/utokyo/list_utokyo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/utokyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E3B7B-D8D5-7948-9E09-1606446F4EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F89C7-95E2-DD40-9173-E057C8D82F5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>book</t>
   </si>
@@ -198,13 +198,608 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/090075d0-3e81-8414-5d57-62c516f49e47/manifest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>桐壺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>帚木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>空蝉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>夕顔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>若紫</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>末摘花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>紅葉賀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>花宴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>葵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>賢木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>花散里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>須磨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>明石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>澪標</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>蓬生</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>関屋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>絵合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>松風</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>薄雲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>朝顔（槿）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>少女</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>玉鬘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>初音</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>胡蝶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>蛍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>常夏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>篝火</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>野分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>行幸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>藤袴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>真木柱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>梅枝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>藤裏葉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>若菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>柏木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>横笛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>鈴虫</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>夕霧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>御法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>幻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>雲隠</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>匂宮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>紅梅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>竹河</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>橋姫</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>椎本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>総角</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>早蕨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>宿木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>東屋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>浮舟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>蜻蛉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>手習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>夢浮橋</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,6 +815,12 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -582,7 +1183,7 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -891,15 +1492,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="14.5" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -907,436 +1511,598 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C39" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C42" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C44" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C45" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C46" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C47" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C50" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C52" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C53" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C54" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/ugm/data/utokyo/list_utokyo.xlsx
+++ b/scripts/ugm/data/utokyo/list_utokyo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/utokyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F89C7-95E2-DD40-9173-E057C8D82F5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDADC03-99D1-CC4F-9B15-CD8285E5356F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>book</t>
   </si>
@@ -198,608 +198,13 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/090075d0-3e81-8414-5d57-62c516f49e47/manifest</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>桐壺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>帚木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>空蝉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夕顔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>若紫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>末摘花</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>紅葉賀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>花宴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>葵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>賢木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>花散里</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>須磨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>明石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>澪標</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蓬生</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>関屋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>絵合</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>松風</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>薄雲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>朝顔（槿）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>少女</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>玉鬘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>初音</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>胡蝶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蛍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>常夏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>篝火</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>野分</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>行幸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>藤袴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>真木柱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>梅枝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>藤裏葉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>若菜</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>柏木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>横笛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>鈴虫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夕霧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>御法</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>幻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>雲隠</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>匂宮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>紅梅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>竹河</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>橋姫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>椎本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>総角</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>早蕨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>宿木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>東屋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>浮舟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蜻蛉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>手習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夢浮橋</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -815,12 +220,6 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1183,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1204,8 +603,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3">
@@ -1492,18 +895,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="14.5" style="4"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,598 +911,436 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/ugm/data/utokyo/list_utokyo.xlsx
+++ b/scripts/ugm/data/utokyo/list_utokyo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/utokyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDADC03-99D1-CC4F-9B15-CD8285E5356F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A11B7-CDDA-E84A-951B-B3C805C2D231}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -240,16 +240,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,12 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -580,22 +582,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -603,285 +605,636 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>8</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="6">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="6">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>12</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A18">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A24">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A27">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A28">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A30">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A31">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="6">
         <v>54</v>
       </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -904,18 +1257,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -923,7 +1276,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -931,15 +1284,15 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -947,7 +1300,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -955,15 +1308,15 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -971,7 +1324,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -979,15 +1332,15 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -995,7 +1348,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1003,15 +1356,15 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1019,7 +1372,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1027,15 +1380,15 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1043,7 +1396,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1051,15 +1404,15 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1067,7 +1420,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1075,15 +1428,15 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1091,7 +1444,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1099,15 +1452,15 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1115,7 +1468,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1123,15 +1476,15 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1139,7 +1492,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1147,15 +1500,15 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1163,7 +1516,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1171,15 +1524,15 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1187,7 +1540,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1195,15 +1548,15 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1211,7 +1564,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1219,15 +1572,15 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1235,7 +1588,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1243,15 +1596,15 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1259,7 +1612,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1267,15 +1620,15 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1283,7 +1636,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1291,15 +1644,15 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1307,7 +1660,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1315,15 +1668,15 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1331,7 +1684,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1339,7 +1692,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/scripts/ugm/data/utokyo/list_utokyo.xlsx
+++ b/scripts/ugm/data/utokyo/list_utokyo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/utokyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A11B7-CDDA-E84A-951B-B3C805C2D231}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD6A73-71E7-C04C-A322-3561060E52D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>book</t>
   </si>
@@ -198,13 +198,17 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/090075d0-3e81-8414-5d57-62c516f49e47/manifest</t>
+  </si>
+  <si>
+    <t>https://mp.ex.nii.ac.jp/api/curation/json/7c5edc3e-4966-4bc5-8186-21a79e1b34ba</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,6 +224,13 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,10 +265,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -265,8 +277,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,7 +598,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1248,15 +1262,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,15 +1278,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1288,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1296,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1312,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1320,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1328,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1336,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1352,7 +1369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1360,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1368,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1698,6 +1715,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B612B945-DDDA-644C-B47E-3EDD9883D372}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/ugm/data/utokyo/list_utokyo.xlsx
+++ b/scripts/ugm/data/utokyo/list_utokyo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/utokyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD6A73-71E7-C04C-A322-3561060E52D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50C6C4-9FF4-4341-B000-A686A60985FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>book</t>
   </si>
@@ -201,6 +201,23 @@
   </si>
   <si>
     <t>https://mp.ex.nii.ac.jp/api/curation/json/7c5edc3e-4966-4bc5-8186-21a79e1b34ba</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://mp.ex.nii.ac.jp/api/curation/json/997dead0-ef9f-4561-89b1-713c82a9d666</t>
+  </si>
+  <si>
+    <t>大成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新編</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンヘン </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -208,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +241,12 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -267,9 +290,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -277,7 +300,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1262,34 +1286,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1297,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1305,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1313,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1321,7 +1354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1329,7 +1362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1337,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1345,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1361,7 +1394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1369,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1377,7 +1410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1385,7 +1418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1393,7 +1426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
